--- a/Pizza Restarent.xlsx
+++ b/Pizza Restarent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7A782-ACAA-4018-B2B1-770638B60FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC91E2-07E5-44F0-BB2F-845BE5AD97D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
   <si>
     <t>S.No</t>
   </si>
@@ -154,6 +154,155 @@
   </si>
   <si>
     <t>4, Arama Suites, Sarvabhouma Nagar, Off Bannerghatta Road, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>South Bangalore</t>
+  </si>
+  <si>
+    <t>Uttarahalli</t>
+  </si>
+  <si>
+    <t>banashankari</t>
+  </si>
+  <si>
+    <t>JP  Nagar</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>""RATED\n  Place with a nice impressive range of pizzas and desserts</t>
+  </si>
+  <si>
+    <t>""RATED\n  My god it was heaven! I do want to try their babe's demise pizza</t>
+  </si>
+  <si>
+    <t>Bannerghatta Road</t>
+  </si>
+  <si>
+    <t>Java City</t>
+  </si>
+  <si>
+    <t>The Pizzeria</t>
+  </si>
+  <si>
+    <t>The Airos</t>
+  </si>
+  <si>
+    <t>As On Fire</t>
+  </si>
+  <si>
+    <t>Desi Cream Junction</t>
+  </si>
+  <si>
+    <t>Salut</t>
+  </si>
+  <si>
+    <t>Ragoo's</t>
+  </si>
+  <si>
+    <t>The Sip Shop</t>
+  </si>
+  <si>
+    <t>Vinny's</t>
+  </si>
+  <si>
+    <t>Pizza Stop</t>
+  </si>
+  <si>
+    <t>Tasty Bites</t>
+  </si>
+  <si>
+    <t>Cafe Zuppa</t>
+  </si>
+  <si>
+    <t>Midnight Mania</t>
+  </si>
+  <si>
+    <t>Cheesiano Pizza</t>
+  </si>
+  <si>
+    <t>but the cake got mashed against each other which made the entire experience a sour one.')</t>
+  </si>
+  <si>
+    <t>The Hunger Room</t>
+  </si>
+  <si>
+    <t>63/2, 8th Main, 18th Cross, 3rd Block, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATED\n  We ordered a small Margherita pizza with extra sauce and mushrooms. </t>
+  </si>
+  <si>
+    <t>Rs.319/-</t>
+  </si>
+  <si>
+    <t>199 rupees, </t>
+  </si>
+  <si>
+    <t> ₹399 </t>
+  </si>
+  <si>
+    <t> ₹440</t>
+  </si>
+  <si>
+    <t>₹850 ,for two</t>
+  </si>
+  <si>
+    <r>
+      <t> 75 rupees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF474747"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>699.00 </t>
+  </si>
+  <si>
+    <t>1112, 30th Main,Teachers Layout, Next to SBI Bank, 3rd Stage, Banashankari, Bangalore</t>
+  </si>
+  <si>
+    <t>22, 2nd Main Road, National College Road, 7th Block, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t>75, 21st Main Road, Siddanna Layout, 2nd Stage, Banashankari, Bangalore</t>
+  </si>
+  <si>
+    <t>7th Main Road, 4th Block, Jayanagar East, Bangalore</t>
+  </si>
+  <si>
+    <t>382/71/4, 11th Main, 3rd Block, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t>16, 5th B Main, KR Road, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t>203 4th Main, 4th Cross, Chamrajpet, Basavanagudi, Bangalore</t>
+  </si>
+  <si>
+    <t>2467, 24th Cross, 2nd Stage, Banashankari, Bangalore</t>
+  </si>
+  <si>
+    <t>199 rupees</t>
+  </si>
+  <si>
+    <t>14, 100 Feet Ring Road, 6th Block, 3rd Stage, Banashankari, Bangalore</t>
+  </si>
+  <si>
+    <t>Rs.189/-</t>
+  </si>
+  <si>
+    <t>2454, 17th E Cross, 9th Main, 2nd Stage, Banashankari, Bangalore</t>
+  </si>
+  <si>
+    <t>32, KK Plaza, 3rd Main Road, Near Canara Bank, Hanumanthnagar, Banashankari, Bangalore</t>
   </si>
 </sst>
 </file>
@@ -164,7 +313,7 @@
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,16 +333,59 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,17 +393,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDADCE0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,8 +714,8 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
+    <col min="6" max="6" width="75.44140625" customWidth="1"/>
     <col min="7" max="7" width="82.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="9" max="9" width="51.6640625" customWidth="1"/>
@@ -892,6 +1103,15 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="3">
+        <v>395</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -909,8 +1129,17 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -925,6 +1154,801 @@
       </c>
       <c r="E17" t="s">
         <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="11">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45863</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Pizza Restarent.xlsx
+++ b/Pizza Restarent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bujji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC91E2-07E5-44F0-BB2F-845BE5AD97D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F268509-1CCF-41E5-A7FA-9BE22FCF6954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="188">
   <si>
     <t>S.No</t>
   </si>
@@ -304,6 +304,389 @@
   <si>
     <t>32, KK Plaza, 3rd Main Road, Near Canara Bank, Hanumanthnagar, Banashankari, Bangalore</t>
   </si>
+  <si>
+    <t>Pizza Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Pizza   </t>
+  </si>
+  <si>
+    <t>pizza Da Dhaba</t>
+  </si>
+  <si>
+    <t>Intalia</t>
+  </si>
+  <si>
+    <t>Mahek pizza</t>
+  </si>
+  <si>
+    <t>The hungers zone</t>
+  </si>
+  <si>
+    <t>calvins</t>
+  </si>
+  <si>
+    <t>pizza paradise</t>
+  </si>
+  <si>
+    <t>Bangalore Pizza &amp; Pulse Juice Bar</t>
+  </si>
+  <si>
+    <t>Pizza On The Way</t>
+  </si>
+  <si>
+    <t>Orlando's Pizzeria</t>
+  </si>
+  <si>
+    <t>Juice Fresco &amp; Pizza</t>
+  </si>
+  <si>
+    <t>Flow - Terrace Bar &amp; Grill</t>
+  </si>
+  <si>
+    <t>Ishta Cafe</t>
+  </si>
+  <si>
+    <t>Spar Refresh</t>
+  </si>
+  <si>
+    <t>Brahma Brews</t>
+  </si>
+  <si>
+    <t>Enerjuvate Studio &amp; Cafe</t>
+  </si>
+  <si>
+    <t>Bread and Circus</t>
+  </si>
+  <si>
+    <t>Energy Addaa</t>
+  </si>
+  <si>
+    <t>Pizza Mane</t>
+  </si>
+  <si>
+    <t>LIT Gastro Pub</t>
+  </si>
+  <si>
+    <t>grillopia</t>
+  </si>
+  <si>
+    <t>Mockaholic Restro Beer Cafe</t>
+  </si>
+  <si>
+    <t>1441 Pizzeria</t>
+  </si>
+  <si>
+    <t>SMM Pizzeria</t>
+  </si>
+  <si>
+    <t>Garage Pizza</t>
+  </si>
+  <si>
+    <t>97, Wilson Garden Housing Society, 7th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Site 15, 15th Cross, 100 Feet Road, 4th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>305, Anand NR Onyx, 15th Cross, 100 Feet Ring Road, 5th Phase Extension, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>₹700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs. 199 </t>
+  </si>
+  <si>
+    <t> 379.00</t>
+  </si>
+  <si>
+    <t>285 rupees</t>
+  </si>
+  <si>
+    <t>₹169)</t>
+  </si>
+  <si>
+    <r>
+      <t>Rs 239</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001D35"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>₹600 </t>
+  </si>
+  <si>
+    <t>Rs. 199</t>
+  </si>
+  <si>
+    <t>₹250 </t>
+  </si>
+  <si>
+    <t>Rs. 399</t>
+  </si>
+  <si>
+    <t>Rs.229/-</t>
+  </si>
+  <si>
+    <r>
+      <t>250 rupees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001D35"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF474747"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rs. 210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF001D35"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>249 rupees, </t>
+  </si>
+  <si>
+    <t> 220 rupees</t>
+  </si>
+  <si>
+    <t>210 rupees</t>
+  </si>
+  <si>
+    <t>299 rupees,</t>
+  </si>
+  <si>
+    <r>
+      <t>280 rupees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF474747"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>43, Arasu Nilaya 1st Floor, Opp To Patel Medical, 7th Main Road, 2nd Stage, BTM, Bangalore</t>
+  </si>
+  <si>
+    <t>311, 15th Cross, 5th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>16, 17, 18/2 Sarakki Lake, 24th Main, 6th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the driver was very confused on arriving where he needs to arrive.\n\nHonestly taste was not that bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('Rated 5.0'</t>
+  </si>
+  <si>
+    <t>Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>45/46, Ajantha Avenue, 1st Floor, Puttenahalli Main Road, 7th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Ground Floor, Gowry's, Next To Vijaya Bank, Arakere Gate, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>Agastya Suites, 116, 8th Main Road, Next to M.K.Ahmed Retail, 4th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Hongasandra, 1st Main Road, Bommanahalli, Bangalore</t>
+  </si>
+  <si>
+    <t>Ground Floor, 21, Krishnama Raju Layout, Near Oracle Dorasani Palya, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Beside Radiant Shine Apartment, Akshaya Nagar, Yellanahalli, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>81/3/4, 5th Cross, Opposite Royal Meenakshi Mall, Hulimavu, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>24th Main, 5th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>779, 16th Main, 14th Cross, Near Mico Layout Police Station, 2nd Stage, BTM, Bangalore</t>
+  </si>
+  <si>
+    <t>Near Reliance Mart, Shabari Complex, Arakere Mico Layout, Off B G Road, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>7 &amp; 8, Kodichikkanahalli Main Road, Bommanahalli, Bangalore</t>
+  </si>
+  <si>
+    <t>Bommanahalli</t>
+  </si>
+  <si>
+    <t>Basavanagudi</t>
+  </si>
+  <si>
+    <t>Shanti Nagar</t>
+  </si>
+  <si>
+    <t>Wilson Garden</t>
+  </si>
+  <si>
+    <t>206, 30th B Main Road, 6th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>4th Floor, Gopalan Innovation Mall, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>1274, 2nd Cross, 1st Block, Opposite RMR Park, Devarachikkanahalli Road, BTM 4th Stage, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>1, Pai Layout, Hulimavu Main Road, Bannerghatta Road, Bangalore, Bengaluru</t>
+  </si>
+  <si>
+    <t>47/1, 9th Main, 1st Cross, 3rd Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Eden Park7, 8 Doresani Palya, Near Kalyani Magnum, Opposite Oracle, 5th Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>26/2, Dodda Kammanahalli, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>18, 7th Main Road, NS Palya, Stage 2, BTM, Bangalore</t>
+  </si>
+  <si>
+    <t>67, 15th Cross, 3rd Phase, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>10, 1st Floor, Opposite Royal Meenakshi Mall, Hulimavu, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>Ground Floor,Vega City Mall, Bannerghatta Road, Bengaluru</t>
+  </si>
+  <si>
+    <t>8, Arikere Gate, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>31, 4th Cross Road, Panduranga Nagar, Bannerghatta Road, Bangalore</t>
+  </si>
+  <si>
+    <t>24th Main, 7th Phase, Opposite Brigade Palm Springs, JP Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>90/66, 1st Floor, Gandhi Bazar Main Road, Basavanagudi, Bangalore</t>
+  </si>
+  <si>
+    <t>Shop 547, 32nd C Cross, 9th Main, 4th Block, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Lal Bagh Main Road, Sampangi Rama Nagar, Near Shanti Nagar, Bangalore</t>
+  </si>
+  <si>
+    <t>Rashtriya Vidyalaya Road, Basavanagudi, Bangalore</t>
+  </si>
+  <si>
+    <t>9/63, 1st C Main Road, Kathreguppe, Vivekananda Nagar, Banashankri, Bangalore</t>
+  </si>
+  <si>
+    <t>539, 10th Main, 5th Block, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t>233, 4th Floor, 40th cross, 9th Main Road, 5th Block, Jayanagar, Bangalore</t>
+  </si>
+  <si>
+    <t>259 rupees</t>
+  </si>
+  <si>
+    <t>₹500 </t>
+  </si>
+  <si>
+    <r>
+      <t>two: ₹1550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF474747"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ishta Café</t>
+  </si>
+  <si>
+    <t>320 rupees</t>
+  </si>
+  <si>
+    <t>309 rupees</t>
+  </si>
+  <si>
+    <t>280 rupees</t>
+  </si>
+  <si>
+    <t>Rs.249/-</t>
+  </si>
+  <si>
+    <r>
+      <t> 85 rupees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF474747"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +696,7 @@
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +753,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF828282"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -406,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,6 +848,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +1156,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
     <col min="6" max="6" width="75.44140625" customWidth="1"/>
-    <col min="7" max="7" width="82.77734375" customWidth="1"/>
+    <col min="7" max="7" width="99.5546875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="9" max="9" width="51.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
@@ -1627,7 +2067,7 @@
       <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="14" t="s">
         <v>81</v>
       </c>
       <c r="H35" s="13">
@@ -1653,6 +2093,12 @@
       <c r="F36" t="s">
         <v>21</v>
       </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -1673,6 +2119,12 @@
       <c r="F37" t="s">
         <v>62</v>
       </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="3">
+        <v>299</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1693,8 +2145,14 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1712,6 +2170,12 @@
       </c>
       <c r="F39" t="s">
         <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1733,6 +2197,12 @@
       <c r="F40" t="s">
         <v>63</v>
       </c>
+      <c r="G40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -1753,6 +2223,12 @@
       <c r="F41" t="s">
         <v>18</v>
       </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -1773,6 +2249,12 @@
       <c r="F42" t="s">
         <v>64</v>
       </c>
+      <c r="G42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -1793,6 +2275,12 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -1813,6 +2301,12 @@
       <c r="F44" t="s">
         <v>65</v>
       </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -1833,6 +2327,12 @@
       <c r="F45" t="s">
         <v>22</v>
       </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -1853,6 +2353,12 @@
       <c r="F46" t="s">
         <v>68</v>
       </c>
+      <c r="G46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
@@ -1873,6 +2379,12 @@
       <c r="F47" t="s">
         <v>13</v>
       </c>
+      <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="19">
+        <v>250</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
@@ -1893,8 +2405,14 @@
       <c r="F48" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="19">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1913,8 +2431,14 @@
       <c r="F49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1933,8 +2457,15 @@
       <c r="F50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1949,6 +2480,1505 @@
       </c>
       <c r="E51" t="s">
         <v>50</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="19">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>94</v>
+      </c>
+      <c r="G59" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>158</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" s="19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" t="s">
+        <v>164</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+      <c r="H74" s="19">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" s="19">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>95</v>
+      </c>
+      <c r="G85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>105</v>
+      </c>
+      <c r="G90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" t="s">
+        <v>106</v>
+      </c>
+      <c r="G92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
+        <v>108</v>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>155</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>157</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
